--- a/TestDesign.xlsx
+++ b/TestDesign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuongTrinhDaiHoc\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CBF44A-6FC1-4B7D-A702-A1ACEFC8F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E08B61-D8DE-4539-B03D-A750337ED47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Nguyễn Việt Pha</t>
   </si>
   <si>
-    <t>Kiêm tra xem đánh giá 0 sao hoặc 6 sao</t>
-  </si>
-  <si>
     <t>Kiểm tra độ dài của chữ ít hơn giới hạn thấp nhất</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>Kiểm tra thêm đánh giá từ 1 đến 5 sao và kèm theo ảnh(JPG/PNG)</t>
-  </si>
-  <si>
-    <t>Kiêm tra thêm đánh giá từ 1 đến 5 sao và kèm theo ảnh định dạng không hỗ trợ</t>
   </si>
   <si>
     <t>Kiểm tra thêm đánh giá nhiều lần trong 1 sản phẩm</t>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t>Kiểm tra thêm đánh giá từ 1 đến 5 sao, chữ, ảnh và video</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem đánh giá 0 sao hoặc 6 sao</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm đánh giá từ 1 đến 5 sao và kèm theo ảnh định dạng không hỗ trợ</t>
   </si>
 </sst>
 </file>
@@ -29034,7 +29034,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29090,16 +29090,16 @@
     </row>
     <row r="2" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>23</v>
@@ -29131,7 +29131,7 @@
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
       <c r="D3" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>23</v>
@@ -29163,9 +29163,11 @@
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="32"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -29193,9 +29195,11 @@
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="32"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -29223,7 +29227,7 @@
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>23</v>
@@ -29254,10 +29258,10 @@
       <c r="A7" s="66"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>23</v>
@@ -29289,7 +29293,7 @@
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
       <c r="D8" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>23</v>
@@ -29321,7 +29325,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
       <c r="D9" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>23</v>
@@ -29353,7 +29357,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
       <c r="D10" s="32" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>23</v>
@@ -29385,7 +29389,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>23</v>
@@ -29417,7 +29421,7 @@
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>23</v>
@@ -29449,7 +29453,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>23</v>
@@ -29481,7 +29485,7 @@
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>23</v>
